--- a/Figure1/He_model_new.xlsx
+++ b/Figure1/He_model_new.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anandban\Desktop\eSAC-KI\HeModel_modified\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anandban\Documents\Research\eSAC-KI\Current Biology\Figure1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAEAC8B-E1DD-4E9A-83B0-A5AC43F82969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF68676E-CED1-41C8-A09A-8559ED344C70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7C3FC4C8-8708-48EB-AD2C-9C21859314EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{7C3FC4C8-8708-48EB-AD2C-9C21859314EF}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
     <sheet name="reactions" sheetId="2" r:id="rId2"/>
     <sheet name="constraints" sheetId="12" r:id="rId3"/>
     <sheet name="Reactions grouped" sheetId="17" r:id="rId4"/>
-    <sheet name="Reactions grouped (v5)" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
   <si>
     <t>Species</t>
   </si>
@@ -103,21 +102,9 @@
     <t>kincapp*eSAC2A*CAPP</t>
   </si>
   <si>
-    <t>kamad2*eSAC2A*Mad2I</t>
-  </si>
-  <si>
-    <t>kamad1*eSAC1A*Mad2I</t>
-  </si>
-  <si>
     <t>Reactions of complexes</t>
   </si>
   <si>
-    <t>Mad2AF_Cdc20_Arrow_Mad2A:Cdc20</t>
-  </si>
-  <si>
-    <t>kasc1*Mad2AF*Cdc20</t>
-  </si>
-  <si>
     <t>kdic1*Mad2A:Cdc20</t>
   </si>
   <si>
@@ -130,9 +117,6 @@
     <t>kdimcc*MCC</t>
   </si>
   <si>
-    <t>kimad*MCC</t>
-  </si>
-  <si>
     <t>MCC_Arrow_Mad2I_BubR1_Cdc20</t>
   </si>
   <si>
@@ -145,9 +129,6 @@
     <t>Mad2A:Cdc20_Arrow_Mad2I_Cdc20</t>
   </si>
   <si>
-    <t>kimad*Mad2A:Cdc20</t>
-  </si>
-  <si>
     <t>kicapp*CAPP*CycB</t>
   </si>
   <si>
@@ -205,34 +186,7 @@
     <t>CycB_CAPP_Arrow_CycB_CAPX</t>
   </si>
   <si>
-    <t xml:space="preserve">Reactions of Mad2 (in)activation </t>
-  </si>
-  <si>
-    <t>eSAC1A_Mad2I_Arrow_eSAC1A_Mad2AF</t>
-  </si>
-  <si>
-    <t>Mad2AF_Arrow_Mad2I</t>
-  </si>
-  <si>
-    <t>kimad*Mad2AF</t>
-  </si>
-  <si>
     <t>Phosphodomain (without Mps1) reaction</t>
-  </si>
-  <si>
-    <t>Mad2A:Cdc20_Arrow_Mad2AF_Cdc20</t>
-  </si>
-  <si>
-    <t>MCC_Arrow_Mad2AF_BubR1_Cdc20</t>
-  </si>
-  <si>
-    <t>eSAC2A_Mad2A:Cdc20_Arrow_MCC_eSAC1A</t>
-  </si>
-  <si>
-    <t>kasmcc2*eSAC2A*Mad2A:Cdc20</t>
-  </si>
-  <si>
-    <t>eSAC2A_Mad2I_Arrow_eSAC2A_Mad2AF</t>
   </si>
   <si>
     <t>eSAC1I_Cdc20_Arrow_eSAC1I:Cdc20</t>
@@ -398,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,12 +371,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -789,7 +737,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -797,7 +745,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -805,7 +753,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -813,7 +761,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -821,7 +769,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -829,7 +777,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -837,7 +785,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -845,7 +793,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -853,7 +801,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -861,7 +809,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -869,7 +817,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -877,7 +825,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -885,7 +833,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -893,7 +841,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -908,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C7814F-8E01-411C-95B6-B4A8D7349620}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -990,50 +938,50 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1054,170 +1002,170 @@
     </row>
     <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C24F7C4-B72B-47D4-9850-C4F2004CD175}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1246,32 +1194,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1233,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,7 +1281,7 @@
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1370,55 +1318,55 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1439,95 +1387,95 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1535,507 +1483,96 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BC4CBF-34E7-40D7-AE89-BC9C33C17BB5}">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="56.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>